--- a/Assets/06.Table/Attendance100.xlsx
+++ b/Assets/06.Table/Attendance100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFEE42-1FF2-4CB5-814C-4BD221111A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A61D415-8A64-40E7-B21D-5708AB28855F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -499,10 +499,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1213</v>
       </c>
       <c r="C4">
-        <v>1000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -544,10 +544,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1213</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Attendance100.xlsx
+++ b/Assets/06.Table/Attendance100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A61D415-8A64-40E7-B21D-5708AB28855F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E42223C-EF32-4803-BE38-18B2B068FDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-60" yWindow="3660" windowWidth="35730" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance100" sheetId="1" r:id="rId1"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,6 +550,160 @@
         <v>1000000</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>2000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Attendance100.xlsx
+++ b/Assets/06.Table/Attendance100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E42223C-EF32-4803-BE38-18B2B068FDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E631F184-D9B2-493D-BBC0-F253DE3ECA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="3660" windowWidth="35730" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance100" sheetId="1" r:id="rId1"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -704,6 +704,160 @@
         <v>2000000</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>3000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
